--- a/Gen_4/db/in_title.xlsx
+++ b/Gen_4/db/in_title.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epyur\PycharmProjects\PythonProject\Gen_4\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3184A4-BBD6-4976-ABE8-B9AD66F03735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B595FCF-5E9B-43E1-8808-B0D51A7E6461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3F8B02EB-4387-405E-9C62-F8A880FA0F8B}"/>
   </bookViews>
@@ -504,7 +504,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,6 +530,12 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -553,9 +559,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -894,18 +902,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31C926D-E8FD-44DE-9E8C-FD4403748C20}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B1" t="s">
@@ -913,7 +921,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -921,7 +929,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -929,7 +937,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -937,7 +945,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -945,7 +953,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -953,7 +961,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -961,7 +969,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -969,7 +977,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -977,7 +985,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -985,7 +993,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -993,7 +1001,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1001,7 +1009,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1009,7 +1017,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1017,7 +1025,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1025,7 +1033,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1033,7 +1041,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1041,7 +1049,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1049,7 +1057,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1057,7 +1065,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1065,7 +1073,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1073,7 +1081,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1081,7 +1089,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1089,7 +1097,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1097,7 +1105,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B25" t="s">
@@ -1105,7 +1113,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B26" t="s">
@@ -1113,7 +1121,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B27" t="s">
@@ -1121,7 +1129,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B28" t="s">
@@ -1129,7 +1137,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
@@ -1137,7 +1145,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B30" t="s">
@@ -1145,7 +1153,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B31" t="s">
@@ -1153,7 +1161,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B32" t="s">
@@ -1161,7 +1169,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B33" t="s">
@@ -1169,7 +1177,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B34" t="s">
@@ -1177,7 +1185,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B35" t="s">
@@ -1185,7 +1193,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B36" t="s">
@@ -1193,7 +1201,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B37" t="s">
@@ -1201,7 +1209,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
@@ -1209,7 +1217,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B39" t="s">
@@ -1217,7 +1225,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B40" t="s">
@@ -1225,7 +1233,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B41" t="s">
@@ -1233,7 +1241,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B42" t="s">
@@ -1241,7 +1249,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B43" t="s">
@@ -1249,7 +1257,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B44" t="s">
@@ -1257,7 +1265,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B45" t="s">
@@ -1265,7 +1273,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B46" t="s">
@@ -1273,7 +1281,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B47" t="s">
@@ -1281,7 +1289,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B48" t="s">
@@ -1289,7 +1297,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B49" t="s">
@@ -1297,7 +1305,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B50" t="s">
@@ -1305,7 +1313,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B51" t="s">
@@ -1313,7 +1321,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B52" t="s">
@@ -1321,7 +1329,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B53" t="s">
@@ -1329,7 +1337,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B54" t="s">
@@ -1337,7 +1345,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B55" t="s">
@@ -1345,7 +1353,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B56" t="s">
@@ -1353,7 +1361,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B57" t="s">
@@ -1361,7 +1369,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B58" t="s">
@@ -1369,7 +1377,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B59" t="s">
@@ -1377,7 +1385,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B60" t="s">
@@ -1385,7 +1393,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B61" t="s">
@@ -1393,7 +1401,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B62" t="s">
@@ -1401,7 +1409,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B63" t="s">
@@ -1409,7 +1417,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B64" t="s">
@@ -1417,7 +1425,7 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B65" t="s">
@@ -1425,7 +1433,7 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B66" t="s">
@@ -1433,7 +1441,7 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B67" t="s">
@@ -1441,7 +1449,7 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B68" t="s">
@@ -1449,7 +1457,7 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B69" t="s">
@@ -1457,7 +1465,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B70" t="s">
@@ -1465,7 +1473,7 @@
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B71" t="s">
@@ -1473,7 +1481,7 @@
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B72" t="s">
@@ -1481,7 +1489,7 @@
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B73" t="s">
@@ -1489,7 +1497,7 @@
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B74" t="s">
@@ -1497,7 +1505,7 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -1517,7 +1525,7 @@
       <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -1537,7 +1545,7 @@
       <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -1557,7 +1565,7 @@
       <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -1577,7 +1585,7 @@
       <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -1597,7 +1605,7 @@
       <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -1617,7 +1625,7 @@
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -1637,7 +1645,7 @@
       <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -1657,7 +1665,7 @@
       <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -1676,7 +1684,7 @@
       <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -1695,7 +1703,7 @@
       <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -1714,7 +1722,7 @@
       <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -1734,7 +1742,7 @@
       <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -1754,7 +1762,7 @@
       <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B88" s="1" t="s">
